--- a/data/trans_orig/P05A01-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P05A01-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>111931</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>96122</v>
+        <v>96896</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>128124</v>
+        <v>128754</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4099888340887634</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3520809896935709</v>
+        <v>0.3549160554135992</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4692998283374801</v>
+        <v>0.4716101917979031</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>101</v>
@@ -765,19 +765,19 @@
         <v>108165</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>92457</v>
+        <v>92789</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>125712</v>
+        <v>123948</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4162585999943485</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.355810028957374</v>
+        <v>0.3570879565256538</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.483786723090509</v>
+        <v>0.4769978656118165</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>212</v>
@@ -786,19 +786,19 @@
         <v>220096</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>196168</v>
+        <v>199776</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>243458</v>
+        <v>243154</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4130462937153939</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3681424911492075</v>
+        <v>0.3749133565003303</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4568894641949007</v>
+        <v>0.4563178283982606</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>133607</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>116892</v>
+        <v>116653</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>149813</v>
+        <v>149506</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4893863897228992</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4281593994111147</v>
+        <v>0.4272864388780026</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5487460852417734</v>
+        <v>0.5476196766651091</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>120</v>
@@ -836,19 +836,19 @@
         <v>127138</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>110199</v>
+        <v>109737</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>144933</v>
+        <v>142175</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4892749246320709</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4240863418558233</v>
+        <v>0.4223095830289091</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5577560542335752</v>
+        <v>0.547142446764318</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>254</v>
@@ -857,19 +857,19 @@
         <v>260745</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>237595</v>
+        <v>237954</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>285217</v>
+        <v>283851</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.489332033624104</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4458862357439316</v>
+        <v>0.4465595044057175</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5352560817881877</v>
+        <v>0.5326925631322181</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>27472</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19052</v>
+        <v>18244</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>39266</v>
+        <v>38614</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1006247761883374</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06978678904085628</v>
+        <v>0.06682489664614306</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.143825047510184</v>
+        <v>0.1414372509139577</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>23</v>
@@ -907,19 +907,19 @@
         <v>24547</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>16815</v>
+        <v>16833</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>35616</v>
+        <v>35794</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09446647537358061</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06470940581869547</v>
+        <v>0.064778263968908</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.13706474762012</v>
+        <v>0.1377470309519334</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>49</v>
@@ -928,19 +928,19 @@
         <v>52019</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>37924</v>
+        <v>39698</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>65794</v>
+        <v>67635</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09762167266050208</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07116990031625318</v>
+        <v>0.07450065624729858</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.12347327811958</v>
+        <v>0.1269288809097149</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>292401</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>270783</v>
+        <v>268846</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>317067</v>
+        <v>313534</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5930159573607197</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5491721506194132</v>
+        <v>0.5452433827686665</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6430396491367386</v>
+        <v>0.6358754409370468</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>281</v>
@@ -1053,19 +1053,19 @@
         <v>285221</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>265013</v>
+        <v>263875</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>307425</v>
+        <v>309331</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5670697276450793</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5268940209069403</v>
+        <v>0.5246302304402231</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6112150624481343</v>
+        <v>0.6150057154449723</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>556</v>
@@ -1074,19 +1074,19 @@
         <v>577622</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>546880</v>
+        <v>547599</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>608663</v>
+        <v>610389</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5799139301816595</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5490498553771571</v>
+        <v>0.5497716921407938</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6110778416318114</v>
+        <v>0.6128109047782314</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>162421</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>140822</v>
+        <v>142410</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>182816</v>
+        <v>185140</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3294051921673196</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2855994630359906</v>
+        <v>0.2888200523849022</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3707668697860571</v>
+        <v>0.375480830764778</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>169</v>
@@ -1124,19 +1124,19 @@
         <v>169483</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>150509</v>
+        <v>148509</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>190338</v>
+        <v>190799</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3369623179185043</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2992393034834682</v>
+        <v>0.2952625018842935</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3784258046985787</v>
+        <v>0.3793419985142402</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>326</v>
@@ -1145,19 +1145,19 @@
         <v>331904</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>302910</v>
+        <v>302387</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>361056</v>
+        <v>360158</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3332213021791689</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.30411193867753</v>
+        <v>0.3035872440567493</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.362489055969812</v>
+        <v>0.361586934974258</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>38252</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27154</v>
+        <v>26247</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>52466</v>
+        <v>51773</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07757885047196073</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05507162081730782</v>
+        <v>0.05323056184670286</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1064061160560847</v>
+        <v>0.1050007108542802</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>48</v>
@@ -1195,19 +1195,19 @@
         <v>48269</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>36777</v>
+        <v>36753</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61545</v>
+        <v>63781</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0959679544364164</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07311947779367056</v>
+        <v>0.07307162198266537</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1223619567984932</v>
+        <v>0.1268089256218847</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>81</v>
@@ -1216,19 +1216,19 @@
         <v>86521</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>68437</v>
+        <v>69986</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>106967</v>
+        <v>105566</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08686476763917159</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06870889734298453</v>
+        <v>0.07026356428879461</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1073912827406272</v>
+        <v>0.1059847292707163</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>138951</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>123279</v>
+        <v>120635</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>157695</v>
+        <v>158074</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4357933250023009</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3866412804624659</v>
+        <v>0.3783482937458228</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4945789709097059</v>
+        <v>0.495768607358906</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>101</v>
@@ -1341,19 +1341,19 @@
         <v>98718</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>82101</v>
+        <v>83356</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>116124</v>
+        <v>116854</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2943179546376988</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2447762964719209</v>
+        <v>0.248517898169417</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3462122616184041</v>
+        <v>0.348388556512511</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>232</v>
@@ -1362,19 +1362,19 @@
         <v>237669</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>214889</v>
+        <v>211886</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>262292</v>
+        <v>261757</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.363264531353765</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3284471963476925</v>
+        <v>0.3238568270586006</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4009000821815015</v>
+        <v>0.4000819272235502</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>142404</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>123711</v>
+        <v>124280</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>159609</v>
+        <v>159945</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4466218654395003</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3879953965028128</v>
+        <v>0.3897793744396671</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5005841431890141</v>
+        <v>0.5016368505167594</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>157</v>
@@ -1412,19 +1412,19 @@
         <v>158161</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>141671</v>
+        <v>141188</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>176240</v>
+        <v>175560</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4715429254880593</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4223778338347858</v>
+        <v>0.4209377287637699</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5254447563252408</v>
+        <v>0.5234153837736893</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>298</v>
@@ -1433,19 +1433,19 @@
         <v>300565</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>276315</v>
+        <v>274782</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>325917</v>
+        <v>325329</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4593979014173991</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4223328187816822</v>
+        <v>0.4199909427096941</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4981481134361653</v>
+        <v>0.4972492865747</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>37491</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>28116</v>
+        <v>27414</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>49495</v>
+        <v>50937</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1175848095581987</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08817928621780804</v>
+        <v>0.08598021104712304</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1552311425521298</v>
+        <v>0.1597528366802869</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>77</v>
@@ -1483,19 +1483,19 @@
         <v>78533</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>63234</v>
+        <v>64215</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>94017</v>
+        <v>95047</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.234139119874242</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1885251474000205</v>
+        <v>0.191450045723542</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2803030709378957</v>
+        <v>0.2833753216631671</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>115</v>
@@ -1504,19 +1504,19 @@
         <v>116025</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>98171</v>
+        <v>99664</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>137017</v>
+        <v>137320</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.177337567228836</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1500488269370152</v>
+        <v>0.1523308655006244</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2094236387634159</v>
+        <v>0.2098858979463397</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>135131</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>118046</v>
+        <v>117234</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>154016</v>
+        <v>152992</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3767542306916531</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3291212513757795</v>
+        <v>0.3268555227968858</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4294078510188289</v>
+        <v>0.4265525645948291</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>155</v>
@@ -1629,19 +1629,19 @@
         <v>151509</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>134144</v>
+        <v>133910</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>170511</v>
+        <v>169939</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4078785604624222</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3611296980735497</v>
+        <v>0.3604993360849874</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4590348389729925</v>
+        <v>0.4574944141476743</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>292</v>
@@ -1650,19 +1650,19 @@
         <v>286640</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>262101</v>
+        <v>262394</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>312717</v>
+        <v>309622</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3925888960735048</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3589795589687653</v>
+        <v>0.3593815755148994</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4283051055823827</v>
+        <v>0.4240660447241653</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>171395</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>153936</v>
+        <v>152052</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>191007</v>
+        <v>190418</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4778625115775043</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4291831028302159</v>
+        <v>0.4239326926137198</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5325402470968452</v>
+        <v>0.5308996785698833</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>177</v>
@@ -1700,19 +1700,19 @@
         <v>170524</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>153914</v>
+        <v>152678</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>189485</v>
+        <v>188934</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4590679799584306</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4143541076100669</v>
+        <v>0.4110261346171621</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5101143846250016</v>
+        <v>0.5086312529973519</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>353</v>
@@ -1721,19 +1721,19 @@
         <v>341919</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>316728</v>
+        <v>314715</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>369164</v>
+        <v>368396</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4683006954231155</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4337990164330465</v>
+        <v>0.431040839222779</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5056165456309851</v>
+        <v>0.504564066224607</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>52145</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>39386</v>
+        <v>39518</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>67850</v>
+        <v>66672</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1453832577308426</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1098100695775031</v>
+        <v>0.1101795687205806</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1891692279840013</v>
+        <v>0.1858856639522209</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>52</v>
@@ -1771,19 +1771,19 @@
         <v>49424</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>38230</v>
+        <v>37388</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>63858</v>
+        <v>62644</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1330534595791473</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1029203503330997</v>
+        <v>0.1006529286964386</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1719134418327808</v>
+        <v>0.1686449426339997</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>101</v>
@@ -1792,19 +1792,19 @@
         <v>101568</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>84644</v>
+        <v>82952</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>120715</v>
+        <v>121339</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1391104085033797</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1159301765508896</v>
+        <v>0.1136129946482646</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1653343185411767</v>
+        <v>0.1661891138971256</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>147236</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>133452</v>
+        <v>134044</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>158888</v>
+        <v>158443</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7273053548677653</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6592157215332419</v>
+        <v>0.6621401582153227</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7848657900906237</v>
+        <v>0.7826645432482806</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>140</v>
@@ -1917,19 +1917,19 @@
         <v>146672</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>132609</v>
+        <v>134101</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>160405</v>
+        <v>160742</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7062809606425167</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6385644534215541</v>
+        <v>0.645746680589352</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7724094982639289</v>
+        <v>0.7740344781842506</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>287</v>
@@ -1938,19 +1938,19 @@
         <v>293908</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>275555</v>
+        <v>273374</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>311474</v>
+        <v>311236</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7166591492405748</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6719076727913422</v>
+        <v>0.666589826613539</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.759492072285526</v>
+        <v>0.7589131667935439</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>54240</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>42710</v>
+        <v>43038</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>67341</v>
+        <v>66950</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2679333135510832</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2109767971419453</v>
+        <v>0.2125948534590007</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3326486630346106</v>
+        <v>0.3307162688224022</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>57</v>
@@ -1988,19 +1988,19 @@
         <v>59827</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>46196</v>
+        <v>46920</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>73649</v>
+        <v>72685</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2880873207363401</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2224516514512504</v>
+        <v>0.2259371834084958</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3546494401303259</v>
+        <v>0.3500037422225149</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>114</v>
@@ -2009,19 +2009,19 @@
         <v>114067</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>96215</v>
+        <v>96898</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>132747</v>
+        <v>133698</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2781387778516167</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2346077648327053</v>
+        <v>0.2362732561980515</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3236869650427019</v>
+        <v>0.3260065084075304</v>
       </c>
     </row>
     <row r="22">
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5491</v>
+        <v>4555</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004761331581151555</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02712635600268046</v>
+        <v>0.02250165426905667</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5890</v>
+        <v>7565</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.005631718621143152</v>
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.028364516723034</v>
+        <v>0.03642882167564273</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>7528</v>
+        <v>7228</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.005202072907808378</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01835543145474742</v>
+        <v>0.01762361183406396</v>
       </c>
     </row>
     <row r="23">
@@ -2184,19 +2184,19 @@
         <v>117864</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>101823</v>
+        <v>102919</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>134893</v>
+        <v>134718</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4352257463748048</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3759936309326428</v>
+        <v>0.3800395575304192</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4981082590353991</v>
+        <v>0.4974623418624258</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>88</v>
@@ -2205,19 +2205,19 @@
         <v>89739</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>74390</v>
+        <v>73563</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>106107</v>
+        <v>105533</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.322634917857033</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2674531450348347</v>
+        <v>0.2644783135407192</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3814839955809974</v>
+        <v>0.3794199532345831</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>205</v>
@@ -2226,19 +2226,19 @@
         <v>207603</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>184852</v>
+        <v>186337</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>228501</v>
+        <v>231241</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3781783323259324</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3367348414789731</v>
+        <v>0.3394393634175078</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4162475513028804</v>
+        <v>0.4212378001539436</v>
       </c>
     </row>
     <row r="25">
@@ -2255,19 +2255,19 @@
         <v>123691</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>106821</v>
+        <v>106717</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>140529</v>
+        <v>139861</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4567410820665987</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3944473572427181</v>
+        <v>0.3940637465032446</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5189199268634288</v>
+        <v>0.516452131994011</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>132</v>
@@ -2276,19 +2276,19 @@
         <v>136269</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>120489</v>
+        <v>119351</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>153875</v>
+        <v>153594</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4899228977581405</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4331909846253921</v>
+        <v>0.4290975878539235</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5532220564972978</v>
+        <v>0.5522090628526919</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>251</v>
@@ -2297,19 +2297,19 @@
         <v>259960</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>237196</v>
+        <v>237910</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>284970</v>
+        <v>283786</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.473553612923408</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4320857238148127</v>
+        <v>0.4333868468759421</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5191141316409155</v>
+        <v>0.5169562338532191</v>
       </c>
     </row>
     <row r="26">
@@ -2326,19 +2326,19 @@
         <v>29257</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>20961</v>
+        <v>20254</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>41390</v>
+        <v>39564</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1080331715585964</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07740171397753802</v>
+        <v>0.07479078383866851</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1528371781860979</v>
+        <v>0.1460959945605529</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>50</v>
@@ -2347,19 +2347,19 @@
         <v>52136</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>40227</v>
+        <v>40283</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>66271</v>
+        <v>65028</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1874421843848265</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1446264768384277</v>
+        <v>0.1448269234743373</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2382606332488021</v>
+        <v>0.233791319999261</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>80</v>
@@ -2368,19 +2368,19 @@
         <v>81392</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>63384</v>
+        <v>65602</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>97889</v>
+        <v>99152</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1482680547506596</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1154632171591081</v>
+        <v>0.1195043190304657</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1783196020348666</v>
+        <v>0.180619252103308</v>
       </c>
     </row>
     <row r="27">
@@ -2472,19 +2472,19 @@
         <v>311936</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>287722</v>
+        <v>288021</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>338096</v>
+        <v>335728</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5071902577000342</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4678200623097697</v>
+        <v>0.4683068534821802</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5497247577142003</v>
+        <v>0.5458745975321095</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>308</v>
@@ -2493,19 +2493,19 @@
         <v>317759</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>293555</v>
+        <v>291397</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>342424</v>
+        <v>344148</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4993429049289183</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4613069065488731</v>
+        <v>0.4579165446179391</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5381023694596655</v>
+        <v>0.5408116074171729</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>604</v>
@@ -2514,19 +2514,19 @@
         <v>629695</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>592789</v>
+        <v>597278</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>669331</v>
+        <v>663435</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5031997067797914</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4737074497362171</v>
+        <v>0.4772943310749068</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5348736661023167</v>
+        <v>0.53016196401546</v>
       </c>
     </row>
     <row r="29">
@@ -2543,19 +2543,19 @@
         <v>203348</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>178873</v>
+        <v>181508</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>227313</v>
+        <v>227589</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3306327874638674</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2908379969888847</v>
+        <v>0.2951220521425296</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3695980322605317</v>
+        <v>0.3700476632966408</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>181</v>
@@ -2564,19 +2564,19 @@
         <v>185891</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>164868</v>
+        <v>163736</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>209629</v>
+        <v>208393</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2921179301102259</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2590821375182026</v>
+        <v>0.2573032151850804</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3294219072126251</v>
+        <v>0.3274793967141212</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>386</v>
@@ -2585,19 +2585,19 @@
         <v>389239</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>356713</v>
+        <v>353722</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>423722</v>
+        <v>422397</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3110471381451183</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2850550958731695</v>
+        <v>0.2826649110212391</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3386034604526801</v>
+        <v>0.3375446321093725</v>
       </c>
     </row>
     <row r="30">
@@ -2614,19 +2614,19 @@
         <v>99743</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>82448</v>
+        <v>82383</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>121141</v>
+        <v>118713</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1621769548360984</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1340564242828015</v>
+        <v>0.1339499108295283</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1969683885200495</v>
+        <v>0.1930204461205537</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>130</v>
@@ -2635,19 +2635,19 @@
         <v>132705</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>112414</v>
+        <v>112922</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>152143</v>
+        <v>153184</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2085391649608558</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1766526101871205</v>
+        <v>0.1774510308645756</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.239084868018706</v>
+        <v>0.2407208550097935</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>227</v>
@@ -2656,19 +2656,19 @@
         <v>232448</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>204867</v>
+        <v>203834</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>261060</v>
+        <v>261884</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1857531550750902</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1637125057818763</v>
+        <v>0.1628871598101582</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2086174016660776</v>
+        <v>0.2092760214164754</v>
       </c>
     </row>
     <row r="31">
@@ -2760,19 +2760,19 @@
         <v>475845</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>448397</v>
+        <v>448125</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>501720</v>
+        <v>501052</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6404803206162712</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6035347355340522</v>
+        <v>0.6031689070513293</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.675307105646235</v>
+        <v>0.6744082964010457</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>477</v>
@@ -2781,19 +2781,19 @@
         <v>499897</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>471848</v>
+        <v>469019</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>526893</v>
+        <v>526153</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.6380220819907447</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.602223125748887</v>
+        <v>0.598611827001456</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6724763978731315</v>
+        <v>0.6715323867727587</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>949</v>
@@ -2802,19 +2802,19 @@
         <v>975743</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>936806</v>
+        <v>937678</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1012869</v>
+        <v>1013114</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.6392185417599818</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6137108841722124</v>
+        <v>0.6142817866851433</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6635403379789548</v>
+        <v>0.6637007571249216</v>
       </c>
     </row>
     <row r="33">
@@ -2831,19 +2831,19 @@
         <v>225368</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>201784</v>
+        <v>200769</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>254168</v>
+        <v>250843</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.3033415491588624</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2715980254128647</v>
+        <v>0.2702323201365895</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3421057069957516</v>
+        <v>0.3376301711833731</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>203</v>
@@ -2852,19 +2852,19 @@
         <v>214475</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>188612</v>
+        <v>190882</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>238652</v>
+        <v>242924</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2737363271722238</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2407265893665908</v>
+        <v>0.2436237776636433</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.304593563366934</v>
+        <v>0.3100449427123849</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>425</v>
@@ -2873,19 +2873,19 @@
         <v>439843</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>405659</v>
+        <v>403445</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>474785</v>
+        <v>473752</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2881456105910623</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.2657514234225228</v>
+        <v>0.2643004596411485</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.3110364873125684</v>
+        <v>0.3103592086807322</v>
       </c>
     </row>
     <row r="34">
@@ -2902,19 +2902,19 @@
         <v>41738</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>30410</v>
+        <v>30203</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>55743</v>
+        <v>55446</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.05617813022486639</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.04093179130157899</v>
+        <v>0.04065215815964011</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.07502886926452312</v>
+        <v>0.07462909063239505</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>65</v>
@@ -2923,19 +2923,19 @@
         <v>69138</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>56123</v>
+        <v>54220</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>88206</v>
+        <v>86885</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.08824159083703144</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.07163031194512934</v>
+        <v>0.06920125730650663</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1125782736853933</v>
+        <v>0.1108923774010097</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>106</v>
@@ -2944,19 +2944,19 @@
         <v>110876</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>90558</v>
+        <v>91813</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>131697</v>
+        <v>133101</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.07263584764895586</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.05932542392647603</v>
+        <v>0.06014738981766161</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.08627610208928871</v>
+        <v>0.08719585060708991</v>
       </c>
     </row>
     <row r="35">
@@ -3048,19 +3048,19 @@
         <v>1731295</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1674682</v>
+        <v>1670771</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1787761</v>
+        <v>1788479</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.5286669484853916</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.5113797147236695</v>
+        <v>0.5101854471927798</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.5459093104764847</v>
+        <v>0.5461285717405494</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1651</v>
@@ -3069,19 +3069,19 @@
         <v>1697680</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1638267</v>
+        <v>1641902</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1756870</v>
+        <v>1759055</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.5029612582841534</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.4853593426061268</v>
+        <v>0.4864363435942575</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5204972410450127</v>
+        <v>0.5211445974771479</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>3337</v>
@@ -3090,19 +3090,19 @@
         <v>3428975</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>3348751</v>
+        <v>3348925</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>3512741</v>
+        <v>3514371</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.5156197933673428</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.5035564592537412</v>
+        <v>0.5035826410248269</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5282158639285703</v>
+        <v>0.5284609353530121</v>
       </c>
     </row>
     <row r="37">
@@ -3119,19 +3119,19 @@
         <v>1216475</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1161800</v>
+        <v>1161958</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1273938</v>
+        <v>1278146</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.371461866574323</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3547663527405983</v>
+        <v>0.3548147175984916</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3890088784584967</v>
+        <v>0.3902938038530459</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1196</v>
@@ -3140,19 +3140,19 @@
         <v>1221767</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1166360</v>
+        <v>1163433</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1276382</v>
+        <v>1278604</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3619656029574606</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3455503227028148</v>
+        <v>0.3446832255319862</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3781458032884249</v>
+        <v>0.3788043208674035</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2407</v>
@@ -3161,19 +3161,19 @@
         <v>2438242</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2359170</v>
+        <v>2358123</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>2518304</v>
+        <v>2517305</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3666419522486956</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3547518038407569</v>
+        <v>0.3545942328431977</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3786808785342629</v>
+        <v>0.3785306697036677</v>
       </c>
     </row>
     <row r="38">
@@ -3190,19 +3190,19 @@
         <v>327061</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>292184</v>
+        <v>294184</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>362931</v>
+        <v>365760</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.09987118494028532</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.08922108976338219</v>
+        <v>0.0898317452653298</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1108242922296056</v>
+        <v>0.1116882689373163</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>446</v>
@@ -3211,19 +3211,19 @@
         <v>455922</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>417652</v>
+        <v>417272</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>495313</v>
+        <v>496814</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1350731387583861</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1237351025064145</v>
+        <v>0.1236225275794557</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1467432686778963</v>
+        <v>0.1471879779361312</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>761</v>
@@ -3232,19 +3232,19 @@
         <v>782983</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>727906</v>
+        <v>728397</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>831600</v>
+        <v>836033</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1177382543839616</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1094562329402586</v>
+        <v>0.1095300648116011</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1250488899648396</v>
+        <v>0.1257155172976328</v>
       </c>
     </row>
     <row r="39">
@@ -3580,19 +3580,19 @@
         <v>174864</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>156800</v>
+        <v>156886</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>191551</v>
+        <v>192390</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.601837224220956</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5396659842424119</v>
+        <v>0.5399622470531882</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6592686813628044</v>
+        <v>0.6621583362744774</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>156</v>
@@ -3601,19 +3601,19 @@
         <v>171647</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>152854</v>
+        <v>152940</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>189469</v>
+        <v>187703</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6057469445123894</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5394280769562599</v>
+        <v>0.539728241966148</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6686422454883032</v>
+        <v>0.6624086574050642</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>323</v>
@@ -3622,19 +3622,19 @@
         <v>346511</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>322383</v>
+        <v>323351</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>369588</v>
+        <v>372597</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6037676075056359</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5617270874800002</v>
+        <v>0.5634141418829354</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6439777855989771</v>
+        <v>0.6492213721810658</v>
       </c>
     </row>
     <row r="5">
@@ -3651,19 +3651,19 @@
         <v>75373</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>60776</v>
+        <v>61910</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>90830</v>
+        <v>92029</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2594157705507432</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2091759090997367</v>
+        <v>0.2130777766752197</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3126142217510964</v>
+        <v>0.3167421106979422</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>61</v>
@@ -3672,19 +3672,19 @@
         <v>69358</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>55589</v>
+        <v>55757</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>86442</v>
+        <v>85200</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2447678701300671</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1961766859684853</v>
+        <v>0.1967689032415305</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3050567298541442</v>
+        <v>0.3006740223113677</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>136</v>
@@ -3693,19 +3693,19 @@
         <v>144732</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>125660</v>
+        <v>124317</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>167574</v>
+        <v>167371</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2521835237351122</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2189523253287075</v>
+        <v>0.216611722517662</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2919846578126016</v>
+        <v>0.2916312803487873</v>
       </c>
     </row>
     <row r="6">
@@ -3722,19 +3722,19 @@
         <v>40313</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>28867</v>
+        <v>29233</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>54983</v>
+        <v>52720</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1387470052283008</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09935266695236526</v>
+        <v>0.1006117901666688</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1892363804131318</v>
+        <v>0.1814474400559749</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>36</v>
@@ -3743,19 +3743,19 @@
         <v>42359</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>30049</v>
+        <v>30575</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>55932</v>
+        <v>57848</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1494851853575435</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1060424085241701</v>
+        <v>0.1079018322360136</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.197386904741935</v>
+        <v>0.20414891475012</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>72</v>
@@ -3764,19 +3764,19 @@
         <v>82672</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>65385</v>
+        <v>66320</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>100578</v>
+        <v>101916</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.144048868759252</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1139277837521319</v>
+        <v>0.1155568832920935</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1752495192369068</v>
+        <v>0.1775813380000073</v>
       </c>
     </row>
     <row r="7">
@@ -3868,19 +3868,19 @@
         <v>335590</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>312380</v>
+        <v>313108</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>356437</v>
+        <v>359342</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6638423821641095</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6179303291800982</v>
+        <v>0.6193700216628025</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7050794122508143</v>
+        <v>0.7108263457230352</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>314</v>
@@ -3889,19 +3889,19 @@
         <v>344666</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>322790</v>
+        <v>320522</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>365117</v>
+        <v>366551</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6580554739667246</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6162880171184922</v>
+        <v>0.6119568682104598</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6971002415607961</v>
+        <v>0.6998380335222973</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>631</v>
@@ -3910,19 +3910,19 @@
         <v>680257</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>648275</v>
+        <v>648302</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>712672</v>
+        <v>707834</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6608976597453974</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6298262153061244</v>
+        <v>0.6298523940406133</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.692390033513877</v>
+        <v>0.687689900613174</v>
       </c>
     </row>
     <row r="9">
@@ -3939,19 +3939,19 @@
         <v>129778</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>109003</v>
+        <v>110155</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>150877</v>
+        <v>151854</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2567183804170634</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2156220532540196</v>
+        <v>0.2179017578700343</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2984552374539042</v>
+        <v>0.3003880627939401</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>117</v>
@@ -3960,19 +3960,19 @@
         <v>126201</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>107196</v>
+        <v>105647</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>147947</v>
+        <v>146362</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2409494859887802</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2046635043753099</v>
+        <v>0.2017075628588898</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.282468527347739</v>
+        <v>0.2794424035911842</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>236</v>
@@ -3981,19 +3981,19 @@
         <v>255979</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>225942</v>
+        <v>229176</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>285860</v>
+        <v>284988</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2486942308440229</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2195123180107676</v>
+        <v>0.2226542798103899</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2777246581309187</v>
+        <v>0.276877699772064</v>
       </c>
     </row>
     <row r="10">
@@ -4010,19 +4010,19 @@
         <v>40159</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27998</v>
+        <v>28434</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>53917</v>
+        <v>56026</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07943923741882711</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0553831024500409</v>
+        <v>0.05624551254072666</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1066555469067782</v>
+        <v>0.1108274386681357</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>49</v>
@@ -4031,19 +4031,19 @@
         <v>52898</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>40383</v>
+        <v>39506</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>67988</v>
+        <v>67665</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1009950400444952</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07710165457045388</v>
+        <v>0.07542656865380029</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1298055959232238</v>
+        <v>0.1291904733183534</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>85</v>
@@ -4052,19 +4052,19 @@
         <v>93056</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>75952</v>
+        <v>74020</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>114057</v>
+        <v>112226</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09040810941057977</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07379080511145761</v>
+        <v>0.07191304858033615</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1108106718665736</v>
+        <v>0.1090321763592433</v>
       </c>
     </row>
     <row r="11">
@@ -4156,19 +4156,19 @@
         <v>221595</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>203539</v>
+        <v>203491</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>236660</v>
+        <v>237695</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6858540478209844</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6299677511101481</v>
+        <v>0.6298187339787281</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7324792716414555</v>
+        <v>0.7356824372955466</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>246</v>
@@ -4177,19 +4177,19 @@
         <v>265433</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>249589</v>
+        <v>248097</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>278712</v>
+        <v>279857</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7783500757458015</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7318902667475476</v>
+        <v>0.7275144275557159</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8172900605654587</v>
+        <v>0.8206477454876232</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>461</v>
@@ -4198,19 +4198,19 @@
         <v>487028</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>461233</v>
+        <v>462035</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>508972</v>
+        <v>506598</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7333504351664248</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6945092321329148</v>
+        <v>0.6957164966724848</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7663924612501535</v>
+        <v>0.7628183002798249</v>
       </c>
     </row>
     <row r="13">
@@ -4227,19 +4227,19 @@
         <v>85811</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>70283</v>
+        <v>70117</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>102573</v>
+        <v>102487</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2655909906590208</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2175299209342436</v>
+        <v>0.217016985789042</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3174722392065165</v>
+        <v>0.3172050150347845</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>59</v>
@@ -4248,19 +4248,19 @@
         <v>62673</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>49232</v>
+        <v>49973</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>77648</v>
+        <v>78037</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1837822324934592</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1443666329195905</v>
+        <v>0.1465397721401573</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2276931104608521</v>
+        <v>0.2288351242793435</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>146</v>
@@ -4269,19 +4269,19 @@
         <v>148484</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>127287</v>
+        <v>130636</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>172102</v>
+        <v>172091</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2235824790152635</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1916643650721572</v>
+        <v>0.1967065610918948</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2591454908633516</v>
+        <v>0.2591283078261346</v>
       </c>
     </row>
     <row r="14">
@@ -4298,19 +4298,19 @@
         <v>15688</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9274</v>
+        <v>9720</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>25209</v>
+        <v>24646</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04855496151999489</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0287024339586547</v>
+        <v>0.03008560927987573</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0780248554643221</v>
+        <v>0.07628213874665915</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>12</v>
@@ -4319,19 +4319,19 @@
         <v>12914</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7066</v>
+        <v>6867</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>22509</v>
+        <v>21802</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03786769176073928</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02072078718236376</v>
+        <v>0.02013652299128248</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0660046397381896</v>
+        <v>0.06393317922520945</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>28</v>
@@ -4340,19 +4340,19 @@
         <v>28601</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>19014</v>
+        <v>19471</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>42079</v>
+        <v>40635</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04306708581831167</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02863013199462207</v>
+        <v>0.02931811810595218</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06336141716573776</v>
+        <v>0.06118748975572176</v>
       </c>
     </row>
     <row r="15">
@@ -4444,19 +4444,19 @@
         <v>285204</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>267194</v>
+        <v>267842</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>301429</v>
+        <v>301063</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7650024337103105</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7166947022321933</v>
+        <v>0.7184333249646142</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8085237156521352</v>
+        <v>0.8075414748327492</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>247</v>
@@ -4465,19 +4465,19 @@
         <v>259380</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>241159</v>
+        <v>238638</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>278156</v>
+        <v>276589</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6702659704612128</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.62318040475904</v>
+        <v>0.6166660236982699</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7187834144763544</v>
+        <v>0.7147348088687682</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>506</v>
@@ -4486,19 +4486,19 @@
         <v>544585</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>517673</v>
+        <v>518808</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>569629</v>
+        <v>570857</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7167509884462961</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.681331151625945</v>
+        <v>0.6828249386498189</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7497133152237695</v>
+        <v>0.7513295234857158</v>
       </c>
     </row>
     <row r="17">
@@ -4515,19 +4515,19 @@
         <v>63893</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>51234</v>
+        <v>50373</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>80747</v>
+        <v>77549</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1713797844557691</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1374257358508224</v>
+        <v>0.1351167988396402</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2165875203398605</v>
+        <v>0.2080094721484238</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>87</v>
@@ -4536,19 +4536,19 @@
         <v>90920</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>75680</v>
+        <v>75304</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>108930</v>
+        <v>109488</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2349472923360941</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1955659965570138</v>
+        <v>0.1945936157000379</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.281486470623648</v>
+        <v>0.2829292165933694</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>149</v>
@@ -4557,19 +4557,19 @@
         <v>154813</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>132774</v>
+        <v>133262</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>178228</v>
+        <v>175698</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2037561686046309</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1747494863682333</v>
+        <v>0.1753922089460342</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.234574147276273</v>
+        <v>0.2312437024119214</v>
       </c>
     </row>
     <row r="18">
@@ -4586,19 +4586,19 @@
         <v>23718</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>15493</v>
+        <v>15650</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>34650</v>
+        <v>35982</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06361778183392033</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04155670515787149</v>
+        <v>0.04197815089333313</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09294276395911766</v>
+        <v>0.0965137926013484</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>35</v>
@@ -4607,19 +4607,19 @@
         <v>36681</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>26295</v>
+        <v>26144</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>49781</v>
+        <v>48814</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09478673720269301</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06794883077975007</v>
+        <v>0.06755849942415554</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1286387402645233</v>
+        <v>0.1261403557854363</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>57</v>
@@ -4628,19 +4628,19 @@
         <v>60398</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>46169</v>
+        <v>45470</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>78705</v>
+        <v>76350</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07949284294907305</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06076519372543183</v>
+        <v>0.05984488716536207</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1035865861234599</v>
+        <v>0.1004880619915839</v>
       </c>
     </row>
     <row r="19">
@@ -4732,19 +4732,19 @@
         <v>144215</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>129220</v>
+        <v>127535</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>157729</v>
+        <v>156497</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6782820681079648</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6077584232431315</v>
+        <v>0.5998330530995758</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7418409110707793</v>
+        <v>0.7360470685978596</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>131</v>
@@ -4753,19 +4753,19 @@
         <v>137449</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>122300</v>
+        <v>121490</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>150786</v>
+        <v>151881</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6259316224476552</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5569446327148759</v>
+        <v>0.5532548621116207</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6866691128043829</v>
+        <v>0.6916541857259129</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>265</v>
@@ -4774,19 +4774,19 @@
         <v>281664</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>261670</v>
+        <v>259777</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>303135</v>
+        <v>301522</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6516845524015306</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6054251954473915</v>
+        <v>0.6010444204590666</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7013631868296146</v>
+        <v>0.6976296988145438</v>
       </c>
     </row>
     <row r="21">
@@ -4803,19 +4803,19 @@
         <v>51461</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>38466</v>
+        <v>40075</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>65245</v>
+        <v>65841</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2420336068628808</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1809163838484401</v>
+        <v>0.1884818878504477</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3068639559238911</v>
+        <v>0.3096701794659102</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>66</v>
@@ -4824,19 +4824,19 @@
         <v>68222</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>55254</v>
+        <v>55113</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>82438</v>
+        <v>84456</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3106776607758917</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2516239546708472</v>
+        <v>0.2509787821273271</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3754161502421854</v>
+        <v>0.3846072974894035</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>112</v>
@@ -4845,19 +4845,19 @@
         <v>119683</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>99782</v>
+        <v>99745</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>138286</v>
+        <v>139513</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2769093615785442</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2308644388857944</v>
+        <v>0.2307792201429917</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3199507460327036</v>
+        <v>0.3227903423025031</v>
       </c>
     </row>
     <row r="22">
@@ -4874,19 +4874,19 @@
         <v>16942</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9805</v>
+        <v>9771</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>26517</v>
+        <v>26995</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07968432502915439</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04611441009758026</v>
+        <v>0.04595763833512293</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1247180029244443</v>
+        <v>0.1269664374896425</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>15</v>
@@ -4895,19 +4895,19 @@
         <v>13920</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7593</v>
+        <v>8198</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20992</v>
+        <v>22052</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06339071677645315</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03457755203120205</v>
+        <v>0.03733260096836285</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09559372479722583</v>
+        <v>0.1004221290828259</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>31</v>
@@ -4916,19 +4916,19 @@
         <v>30862</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>21455</v>
+        <v>21842</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>42661</v>
+        <v>41808</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07140608601992522</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04963972246537268</v>
+        <v>0.05053623999340789</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09870566381938191</v>
+        <v>0.09673097389477711</v>
       </c>
     </row>
     <row r="23">
@@ -5020,19 +5020,19 @@
         <v>189387</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>174898</v>
+        <v>173204</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>205070</v>
+        <v>204948</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.6912400193682431</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6383564273566484</v>
+        <v>0.6321738133062919</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7484807429680711</v>
+        <v>0.7480359972705937</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>205</v>
@@ -5041,19 +5041,19 @@
         <v>214613</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>199824</v>
+        <v>199380</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>227012</v>
+        <v>229076</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7663907504389255</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.7135795012673773</v>
+        <v>0.7119935659173177</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8106669530567305</v>
+        <v>0.818038329431228</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>388</v>
@@ -5062,19 +5062,19 @@
         <v>404000</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>380963</v>
+        <v>383882</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>424241</v>
+        <v>426925</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7292257203382125</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6876438524129012</v>
+        <v>0.6929127955535055</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7657614761362884</v>
+        <v>0.7706058090875504</v>
       </c>
     </row>
     <row r="25">
@@ -5091,19 +5091,19 @@
         <v>73530</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>58178</v>
+        <v>58697</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>88151</v>
+        <v>88087</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2683750154209384</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2123430942410888</v>
+        <v>0.2142371901018119</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3217430821223782</v>
+        <v>0.3215079080054949</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>57</v>
@@ -5112,19 +5112,19 @@
         <v>58321</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>46759</v>
+        <v>44532</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>74438</v>
+        <v>71864</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2082675691943261</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1669765901649242</v>
+        <v>0.1590265140372409</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2658213073991795</v>
+        <v>0.2566275269525444</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>125</v>
@@ -5133,19 +5133,19 @@
         <v>131851</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>113296</v>
+        <v>110165</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>154191</v>
+        <v>152750</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2379930956990244</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2045003377887842</v>
+        <v>0.1988488157025128</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2783163281606869</v>
+        <v>0.2757163232593693</v>
       </c>
     </row>
     <row r="26">
@@ -5162,19 +5162,19 @@
         <v>11065</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5396</v>
+        <v>6003</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>19835</v>
+        <v>20008</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04038496521081859</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01969475876648176</v>
+        <v>0.02190855980490184</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07239404241434033</v>
+        <v>0.07302782699910466</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -5183,19 +5183,19 @@
         <v>7096</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2976</v>
+        <v>2988</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>13279</v>
+        <v>13181</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02534168036674847</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01062636674980766</v>
+        <v>0.01067099095845541</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.047419788131689</v>
+        <v>0.04707135465724419</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>17</v>
@@ -5204,19 +5204,19 @@
         <v>18161</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>10948</v>
+        <v>11116</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>29117</v>
+        <v>28860</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03278118396276302</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01976212209571586</v>
+        <v>0.02006401030733641</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05255583651862769</v>
+        <v>0.05209249113636572</v>
       </c>
     </row>
     <row r="27">
@@ -5308,19 +5308,19 @@
         <v>431956</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>405845</v>
+        <v>407500</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>457306</v>
+        <v>458697</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6517256545806126</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6123298908564877</v>
+        <v>0.6148263241806488</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6899728429145001</v>
+        <v>0.6920717238073376</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>447</v>
@@ -5329,19 +5329,19 @@
         <v>487996</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>463750</v>
+        <v>462166</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>511263</v>
+        <v>513143</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.703313095470794</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6683685418351992</v>
+        <v>0.6660866490259992</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7368462993262214</v>
+        <v>0.7395556172459324</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>844</v>
@@ -5350,19 +5350,19 @@
         <v>919952</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>882520</v>
+        <v>881364</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>956408</v>
+        <v>958748</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.678110010390677</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6505182839465098</v>
+        <v>0.649666544335036</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.704982677521776</v>
+        <v>0.7067071523006616</v>
       </c>
     </row>
     <row r="29">
@@ -5379,19 +5379,19 @@
         <v>189784</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>167623</v>
+        <v>165775</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>215146</v>
+        <v>213251</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2863425541101958</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2529059979951357</v>
+        <v>0.250117880480921</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3246083106004776</v>
+        <v>0.321748819656028</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>155</v>
@@ -5400,19 +5400,19 @@
         <v>167811</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>144579</v>
+        <v>145651</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>189888</v>
+        <v>193541</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2418538410240489</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2083710090927088</v>
+        <v>0.2099163136904726</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2736722355485355</v>
+        <v>0.2789364158204378</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>337</v>
@@ -5421,19 +5421,19 @@
         <v>357595</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>321246</v>
+        <v>322444</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>391658</v>
+        <v>392889</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2635888370166197</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2367952508247471</v>
+        <v>0.2376783359208608</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.288696617519233</v>
+        <v>0.2896042422314483</v>
       </c>
     </row>
     <row r="30">
@@ -5450,19 +5450,19 @@
         <v>41048</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>29376</v>
+        <v>29670</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>54345</v>
+        <v>55482</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.06193179130919164</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.04432226320988658</v>
+        <v>0.04476589603584327</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.08199458575122137</v>
+        <v>0.08370941611425083</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>34</v>
@@ -5471,19 +5471,19 @@
         <v>38046</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>26378</v>
+        <v>26657</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>54058</v>
+        <v>52793</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.05483306350515708</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03801663241179254</v>
+        <v>0.03841934549281218</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.07791039162261484</v>
+        <v>0.07608602650341965</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>73</v>
@@ -5492,19 +5492,19 @@
         <v>79094</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>62086</v>
+        <v>62660</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>99167</v>
+        <v>98634</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.05830115259270334</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04576441251685199</v>
+        <v>0.04618743869287346</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.07309709005343829</v>
+        <v>0.07270422587514319</v>
       </c>
     </row>
     <row r="31">
@@ -5596,19 +5596,19 @@
         <v>557001</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>528016</v>
+        <v>529164</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>582094</v>
+        <v>582038</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7149304028390984</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6777267593449117</v>
+        <v>0.6792007740778854</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.747138246932144</v>
+        <v>0.7470658554839855</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>567</v>
@@ -5617,19 +5617,19 @@
         <v>615521</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>589063</v>
+        <v>589011</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>642695</v>
+        <v>640783</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7471251238896819</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7150092772182863</v>
+        <v>0.7149461198587107</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7801086000258921</v>
+        <v>0.7777876038309836</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1082</v>
@@ -5638,19 +5638,19 @@
         <v>1172522</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1133711</v>
+        <v>1132637</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1209892</v>
+        <v>1205690</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7314772050079194</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7072650731353007</v>
+        <v>0.7065946463978576</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.75479059468752</v>
+        <v>0.7521687731794469</v>
       </c>
     </row>
     <row r="33">
@@ -5667,19 +5667,19 @@
         <v>194396</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>170010</v>
+        <v>167996</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>221040</v>
+        <v>219319</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2495136844525755</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2182136681404962</v>
+        <v>0.2156287360041191</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2837126698682236</v>
+        <v>0.2815035171696932</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>160</v>
@@ -5688,19 +5688,19 @@
         <v>176400</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>151005</v>
+        <v>153300</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>202756</v>
+        <v>201586</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2141160450817486</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1832917311118458</v>
+        <v>0.1860773783499528</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.246107354178506</v>
+        <v>0.2446867448607483</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>336</v>
@@ -5709,19 +5709,19 @@
         <v>370796</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>334641</v>
+        <v>336189</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>405844</v>
+        <v>408891</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2313207100518321</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.2087653482048189</v>
+        <v>0.2097310217713177</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2531856105303576</v>
+        <v>0.2550864169472027</v>
       </c>
     </row>
     <row r="34">
@@ -5738,19 +5738,19 @@
         <v>27702</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>18840</v>
+        <v>18378</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>40807</v>
+        <v>38527</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.03555591270832612</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02418141670855782</v>
+        <v>0.0235888221620848</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05237744298626313</v>
+        <v>0.04945057884984007</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>30</v>
@@ -5759,19 +5759,19 @@
         <v>31932</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>21602</v>
+        <v>21779</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>44300</v>
+        <v>43738</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03875883102856948</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02622018739184753</v>
+        <v>0.02643584289024129</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.0537712858453004</v>
+        <v>0.05308995904441334</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>56</v>
@@ -5780,19 +5780,19 @@
         <v>59633</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>46783</v>
+        <v>45439</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>78631</v>
+        <v>76487</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03720208494024855</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02918562767628223</v>
+        <v>0.02834678890423081</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04905415078262453</v>
+        <v>0.04771638491109544</v>
       </c>
     </row>
     <row r="35">
@@ -5884,19 +5884,19 @@
         <v>2339811</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2275935</v>
+        <v>2285918</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2392852</v>
+        <v>2393965</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.6840613871729462</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.6653867671479304</v>
+        <v>0.6683053103765265</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.6995681259181289</v>
+        <v>0.6998936981696514</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2313</v>
@@ -5905,19 +5905,19 @@
         <v>2496706</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2441009</v>
+        <v>2439272</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2554526</v>
+        <v>2558360</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.7028107711545849</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.6871325358411846</v>
+        <v>0.6866435607020658</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.7190869817894331</v>
+        <v>0.7201662203391844</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>4500</v>
@@ -5926,19 +5926,19 @@
         <v>4836518</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>4760571</v>
+        <v>4754588</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>4912336</v>
+        <v>4913998</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.6936135288956127</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.6827219028010336</v>
+        <v>0.6818637675717064</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.7044867053476092</v>
+        <v>0.7047251000046233</v>
       </c>
     </row>
     <row r="37">
@@ -5955,19 +5955,19 @@
         <v>864025</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>815775</v>
+        <v>819900</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>924834</v>
+        <v>919791</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2526042618159133</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2384977992671036</v>
+        <v>0.239703961844654</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2703820645700256</v>
+        <v>0.2689078958193361</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>762</v>
@@ -5976,19 +5976,19 @@
         <v>819907</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>769510</v>
+        <v>766988</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>871725</v>
+        <v>874809</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2308000308042912</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2166134373920722</v>
+        <v>0.2159034787741739</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2453864850560735</v>
+        <v>0.2462545471025665</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1577</v>
@@ -5997,19 +5997,19 @@
         <v>1683933</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1606318</v>
+        <v>1611330</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1754481</v>
+        <v>1757665</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2414957845997691</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2303649432920149</v>
+        <v>0.231083706730832</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2516131754539149</v>
+        <v>0.252069799642036</v>
       </c>
     </row>
     <row r="38">
@@ -6026,19 +6026,19 @@
         <v>216633</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>188523</v>
+        <v>188875</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>251405</v>
+        <v>245601</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.06333435101114042</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.05511610075682793</v>
+        <v>0.05521893269722042</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.07350005441267404</v>
+        <v>0.0718033001726948</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>218</v>
@@ -6047,19 +6047,19 @@
         <v>235845</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>208350</v>
+        <v>206109</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>267304</v>
+        <v>270074</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.06638919804112389</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.05864960495867836</v>
+        <v>0.05801858399059068</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.0752449226420982</v>
+        <v>0.07602466698118791</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>419</v>
@@ -6068,19 +6068,19 @@
         <v>452478</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>409519</v>
+        <v>409265</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>494829</v>
+        <v>494446</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.06489068650461824</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.05872978126867841</v>
+        <v>0.05869341003529872</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.0709642478182481</v>
+        <v>0.07090943782630828</v>
       </c>
     </row>
     <row r="39">
@@ -6416,19 +6416,19 @@
         <v>174320</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>155985</v>
+        <v>156880</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>191746</v>
+        <v>191176</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5956143624274148</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5329694836260136</v>
+        <v>0.5360283010401335</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.655156079624539</v>
+        <v>0.6532091303962844</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>169</v>
@@ -6437,19 +6437,19 @@
         <v>169103</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>151665</v>
+        <v>153166</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>185902</v>
+        <v>185622</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5877155056857298</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5271079277789675</v>
+        <v>0.5323247536915323</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6460975089006291</v>
+        <v>0.6451253683062749</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>328</v>
@@ -6458,19 +6458,19 @@
         <v>343423</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>320988</v>
+        <v>318422</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>366728</v>
+        <v>367890</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5916985642720873</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5530439796064334</v>
+        <v>0.5486234555954775</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6318513327670401</v>
+        <v>0.6338530830697577</v>
       </c>
     </row>
     <row r="5">
@@ -6487,19 +6487,19 @@
         <v>86879</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>72005</v>
+        <v>71090</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>105621</v>
+        <v>102920</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2968460652411244</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2460248173038817</v>
+        <v>0.2428996882293229</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3608838289459528</v>
+        <v>0.351655926007352</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>63</v>
@@ -6508,19 +6508,19 @@
         <v>69391</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>55554</v>
+        <v>56080</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>86041</v>
+        <v>85621</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2411653872721863</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1930754792710476</v>
+        <v>0.1949056770264468</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2990326626642501</v>
+        <v>0.297574458775732</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>142</v>
@@ -6529,19 +6529,19 @@
         <v>156269</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>134235</v>
+        <v>135117</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>176383</v>
+        <v>182260</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2692427926146553</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2312798510462212</v>
+        <v>0.2327988333859254</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3038981196246133</v>
+        <v>0.3140239188379305</v>
       </c>
     </row>
     <row r="6">
@@ -6558,19 +6558,19 @@
         <v>31474</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20948</v>
+        <v>22358</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45492</v>
+        <v>44769</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1075395723314607</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07157521499219549</v>
+        <v>0.07639376061579646</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1554357366060348</v>
+        <v>0.1529648328056276</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>44</v>
@@ -6579,19 +6579,19 @@
         <v>49236</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>37393</v>
+        <v>37222</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>63307</v>
+        <v>63401</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1711191070420839</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1299573004540271</v>
+        <v>0.1293652383144358</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2200219014149803</v>
+        <v>0.2203492374828117</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>71</v>
@@ -6600,19 +6600,19 @@
         <v>80710</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>63453</v>
+        <v>64368</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>98620</v>
+        <v>99039</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1390586431132574</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1093265474318818</v>
+        <v>0.1109030003808311</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1699165450856421</v>
+        <v>0.1706378748881356</v>
       </c>
     </row>
     <row r="7">
@@ -6704,19 +6704,19 @@
         <v>331726</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>310372</v>
+        <v>308689</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>352817</v>
+        <v>352926</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6600530835510749</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6175632060624792</v>
+        <v>0.614215622841512</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7020184243639582</v>
+        <v>0.7022354979871396</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>318</v>
@@ -6725,19 +6725,19 @@
         <v>344572</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>322072</v>
+        <v>321184</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>364867</v>
+        <v>365960</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.658731945149285</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6157166687403086</v>
+        <v>0.6140200203883254</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6975312363292039</v>
+        <v>0.6996199037565733</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>627</v>
@@ -6746,19 +6746,19 @@
         <v>676298</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>643582</v>
+        <v>646311</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>706486</v>
+        <v>708498</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6593793058957683</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6274813245845279</v>
+        <v>0.6301425012914496</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6888113163570061</v>
+        <v>0.6907731543845893</v>
       </c>
     </row>
     <row r="9">
@@ -6775,19 +6775,19 @@
         <v>138553</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>119138</v>
+        <v>119019</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>158460</v>
+        <v>161100</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2756863917137037</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2370554833034346</v>
+        <v>0.2368193569669771</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3152959583782824</v>
+        <v>0.3205495910537322</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>138</v>
@@ -6796,19 +6796,19 @@
         <v>147669</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>128076</v>
+        <v>126700</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>169670</v>
+        <v>169547</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.282303778500504</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2448485879403303</v>
+        <v>0.2422182004938096</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3243651047655646</v>
+        <v>0.3241287228020313</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>273</v>
@@ -6817,19 +6817,19 @@
         <v>286222</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>260632</v>
+        <v>258430</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>317061</v>
+        <v>313570</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.279061244301008</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2541121717349599</v>
+        <v>0.2519644720096661</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3091287873714626</v>
+        <v>0.3057255863791639</v>
       </c>
     </row>
     <row r="10">
@@ -6846,19 +6846,19 @@
         <v>32296</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22058</v>
+        <v>22754</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>44710</v>
+        <v>44174</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06426052473522127</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04388900387333247</v>
+        <v>0.04527415264124697</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08896128993016242</v>
+        <v>0.08789576712452171</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>28</v>
@@ -6867,19 +6867,19 @@
         <v>30843</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21344</v>
+        <v>20966</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44938</v>
+        <v>44094</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.058964276350211</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04080372653865182</v>
+        <v>0.04008062037886598</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08590981297639218</v>
+        <v>0.08429532774138164</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>59</v>
@@ -6888,19 +6888,19 @@
         <v>63139</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>49387</v>
+        <v>47866</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>79848</v>
+        <v>80086</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06155944980322371</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04815158369656704</v>
+        <v>0.04666873328343624</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07785009209251254</v>
+        <v>0.07808231822368704</v>
       </c>
     </row>
     <row r="11">
@@ -6992,19 +6992,19 @@
         <v>261921</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>248414</v>
+        <v>247640</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>274676</v>
+        <v>273718</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8221903601282962</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7797894647195618</v>
+        <v>0.7773602980637344</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8622276175302402</v>
+        <v>0.8592225789573246</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>266</v>
@@ -7013,19 +7013,19 @@
         <v>269973</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>255955</v>
+        <v>255033</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>283749</v>
+        <v>282402</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8027520213216537</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7610701910074513</v>
+        <v>0.7583293719212311</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8437140322671637</v>
+        <v>0.8397113287523811</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>541</v>
@@ -7034,19 +7034,19 @@
         <v>531894</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>512010</v>
+        <v>510796</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>551365</v>
+        <v>551430</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.812207846960065</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7818443032192843</v>
+        <v>0.7799912773702335</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8419410121287326</v>
+        <v>0.8420392643111557</v>
       </c>
     </row>
     <row r="13">
@@ -7063,19 +7063,19 @@
         <v>50964</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>39183</v>
+        <v>40629</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>64108</v>
+        <v>66241</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1599796911308685</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.122999570055104</v>
+        <v>0.1275362697594493</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.201240738115668</v>
+        <v>0.207934576337824</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>60</v>
@@ -7084,19 +7084,19 @@
         <v>59957</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>46928</v>
+        <v>47732</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>75895</v>
+        <v>74121</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1782804371024531</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1395369615024095</v>
+        <v>0.1419298298918354</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2256697566945043</v>
+        <v>0.220395854629896</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>114</v>
@@ -7105,19 +7105,19 @@
         <v>110921</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>91885</v>
+        <v>92349</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>129822</v>
+        <v>130898</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1693779961746807</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1403091784255161</v>
+        <v>0.141018171105151</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1982391076745141</v>
+        <v>0.1998828669868413</v>
       </c>
     </row>
     <row r="14">
@@ -7134,19 +7134,19 @@
         <v>5680</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1901</v>
+        <v>1945</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10744</v>
+        <v>11514</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01782994874083534</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005966442723038188</v>
+        <v>0.006105286577722115</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03372712305877551</v>
+        <v>0.03614292190120373</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -7155,19 +7155,19 @@
         <v>6379</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1966</v>
+        <v>2754</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12830</v>
+        <v>14088</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01896754157589322</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.005845985000722044</v>
+        <v>0.008190013107982903</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03815041449360378</v>
+        <v>0.04188865253003362</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>12</v>
@@ -7176,19 +7176,19 @@
         <v>12059</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6540</v>
+        <v>6462</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>20621</v>
+        <v>20868</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0184141568652544</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.009986417085161771</v>
+        <v>0.009868300545604678</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03148856384017685</v>
+        <v>0.03186547876162985</v>
       </c>
     </row>
     <row r="15">
@@ -7280,19 +7280,19 @@
         <v>257985</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>239825</v>
+        <v>239729</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>275903</v>
+        <v>274578</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6997207362078065</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6504655077066498</v>
+        <v>0.6502050252439627</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7483191638381227</v>
+        <v>0.744726041641941</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>246</v>
@@ -7301,19 +7301,19 @@
         <v>264291</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>246868</v>
+        <v>244565</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>284179</v>
+        <v>282916</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6824240440662027</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6374363124369363</v>
+        <v>0.631489964212482</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7337751980695036</v>
+        <v>0.7305158313621501</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>490</v>
@@ -7322,19 +7322,19 @@
         <v>522276</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>497677</v>
+        <v>492510</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>550451</v>
+        <v>544599</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6908597647240259</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6583208494219974</v>
+        <v>0.6514858965158544</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7281287961450974</v>
+        <v>0.7203881521182528</v>
       </c>
     </row>
     <row r="17">
@@ -7351,19 +7351,19 @@
         <v>74050</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>58343</v>
+        <v>59381</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>90129</v>
+        <v>91442</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2008426612206858</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.158241911884548</v>
+        <v>0.1610550801445852</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2444521661407328</v>
+        <v>0.2480151675082744</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>75</v>
@@ -7372,19 +7372,19 @@
         <v>81496</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>65245</v>
+        <v>64708</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>97821</v>
+        <v>98217</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2104297903347294</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1684678336208604</v>
+        <v>0.1670814976102653</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2525827208603308</v>
+        <v>0.2536047552830137</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>148</v>
@@ -7393,19 +7393,19 @@
         <v>155546</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>132134</v>
+        <v>134097</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>177422</v>
+        <v>181019</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2057540787909003</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1747853887277218</v>
+        <v>0.1773823040346651</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2346908035065818</v>
+        <v>0.2394501167268676</v>
       </c>
     </row>
     <row r="18">
@@ -7422,19 +7422,19 @@
         <v>36662</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>26260</v>
+        <v>26531</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>49251</v>
+        <v>49022</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.09943660257150773</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07122357531910131</v>
+        <v>0.07195977739198361</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1335805010603693</v>
+        <v>0.1329602873723366</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>37</v>
@@ -7443,19 +7443,19 @@
         <v>41496</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>30147</v>
+        <v>28637</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>56448</v>
+        <v>55178</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1071461655990678</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07784237189904586</v>
+        <v>0.07394406331388086</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1457539502795692</v>
+        <v>0.1424751244008714</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>73</v>
@@ -7464,19 +7464,19 @@
         <v>78158</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>60396</v>
+        <v>61181</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>96472</v>
+        <v>95882</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1033861564850738</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07989052158412512</v>
+        <v>0.0809291157004159</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1276115803175236</v>
+        <v>0.1268318460963231</v>
       </c>
     </row>
     <row r="19">
@@ -7568,19 +7568,19 @@
         <v>125140</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>111864</v>
+        <v>109967</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>137848</v>
+        <v>139536</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5924615178562636</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5296084752994071</v>
+        <v>0.520625113010352</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6526232406603095</v>
+        <v>0.6606164475199325</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>146</v>
@@ -7589,19 +7589,19 @@
         <v>142462</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>129053</v>
+        <v>129006</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>156863</v>
+        <v>155203</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6517419871128515</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5903974992331358</v>
+        <v>0.5901837015794663</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7176212554963639</v>
+        <v>0.7100302186378157</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>272</v>
@@ -7610,19 +7610,19 @@
         <v>267603</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>247988</v>
+        <v>247359</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>287356</v>
+        <v>286933</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6226097235338791</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5769747977204097</v>
+        <v>0.575511374613241</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6685677924652645</v>
+        <v>0.6675831251135866</v>
       </c>
     </row>
     <row r="21">
@@ -7639,19 +7639,19 @@
         <v>77078</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>63664</v>
+        <v>63949</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>89992</v>
+        <v>91993</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3649162494570676</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3014097626809393</v>
+        <v>0.3027591614614359</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4260543635098309</v>
+        <v>0.4355297886192468</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>60</v>
@@ -7660,19 +7660,19 @@
         <v>60414</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>47703</v>
+        <v>47897</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>73246</v>
+        <v>72882</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2763856027651399</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2182330664788986</v>
+        <v>0.2191219740259557</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3350878855922823</v>
+        <v>0.3334220319958618</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>137</v>
@@ -7681,19 +7681,19 @@
         <v>137492</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>117072</v>
+        <v>118484</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>156517</v>
+        <v>157113</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3198923119155486</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2723811797522082</v>
+        <v>0.2756679082214615</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3641565922766937</v>
+        <v>0.3655428424900429</v>
       </c>
     </row>
     <row r="22">
@@ -7710,19 +7710,19 @@
         <v>9003</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4439</v>
+        <v>4407</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16816</v>
+        <v>17524</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04262223268666886</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02101798192801016</v>
+        <v>0.020862500147353</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07961231125288656</v>
+        <v>0.08296578792154607</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>17</v>
@@ -7731,19 +7731,19 @@
         <v>15710</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9408</v>
+        <v>9265</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>24187</v>
+        <v>23920</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0718724101220086</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04304124043679404</v>
+        <v>0.04238512732795513</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1106521656011768</v>
+        <v>0.1094311864802858</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>26</v>
@@ -7752,19 +7752,19 @@
         <v>24713</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>16919</v>
+        <v>16601</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>35255</v>
+        <v>35832</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05749796455057227</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03936336942803622</v>
+        <v>0.03862393386939784</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08202586587303287</v>
+        <v>0.08336771675810442</v>
       </c>
     </row>
     <row r="23">
@@ -7856,19 +7856,19 @@
         <v>221176</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>208123</v>
+        <v>207576</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>232009</v>
+        <v>231039</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.8405806890412238</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7909726424606626</v>
+        <v>0.7888925064074799</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8817495115352331</v>
+        <v>0.8780659801964191</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>221</v>
@@ -7877,19 +7877,19 @@
         <v>228920</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>214595</v>
+        <v>216025</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>239516</v>
+        <v>239773</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.8413699400293502</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.7887218898134436</v>
+        <v>0.7939766244253157</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8803149253315966</v>
+        <v>0.8812577063469419</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>439</v>
@@ -7898,19 +7898,19 @@
         <v>450096</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>430734</v>
+        <v>432469</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>466958</v>
+        <v>468257</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.8409819189118029</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.8048054321966205</v>
+        <v>0.8080466419602665</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8724883157312773</v>
+        <v>0.8749140223023398</v>
       </c>
     </row>
     <row r="25">
@@ -7927,19 +7927,19 @@
         <v>37724</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>27599</v>
+        <v>27627</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>50475</v>
+        <v>49750</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1433720234627564</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.104891824882743</v>
+        <v>0.1049960087637528</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1918311913863457</v>
+        <v>0.1890766042538778</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>28</v>
@@ -7948,19 +7948,19 @@
         <v>29452</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>20625</v>
+        <v>20481</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>41711</v>
+        <v>41333</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.108246805364629</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07580406435544608</v>
+        <v>0.07527677462680711</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1533035495735485</v>
+        <v>0.151916411690807</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>65</v>
@@ -7969,19 +7969,19 @@
         <v>67176</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>53098</v>
+        <v>51582</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>84958</v>
+        <v>85009</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1255154899599915</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09921055538763547</v>
+        <v>0.09637898930696073</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1587391307449401</v>
+        <v>0.1588342691990855</v>
       </c>
     </row>
     <row r="26">
@@ -7998,19 +7998,19 @@
         <v>4222</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>985</v>
+        <v>1021</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>11668</v>
+        <v>11344</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01604728749601969</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003744307666268546</v>
+        <v>0.003882157295365142</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04434345685052014</v>
+        <v>0.04311363718054088</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>13</v>
@@ -8019,19 +8019,19 @@
         <v>13708</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7658</v>
+        <v>7911</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>23264</v>
+        <v>23387</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05038325460602081</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02814616559538484</v>
+        <v>0.02907774195534058</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08550541737761809</v>
+        <v>0.08595701532284283</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>17</v>
@@ -8040,19 +8040,19 @@
         <v>17931</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>11126</v>
+        <v>10487</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>28530</v>
+        <v>28290</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03350259112820567</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0207882301289272</v>
+        <v>0.01959356023834889</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05330767436296591</v>
+        <v>0.0528592005788382</v>
       </c>
     </row>
     <row r="27">
@@ -8144,19 +8144,19 @@
         <v>405190</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>379150</v>
+        <v>377273</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>429841</v>
+        <v>428584</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.617143359250953</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5774809262360395</v>
+        <v>0.5746221884860625</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6546892910403518</v>
+        <v>0.6527743144934773</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>387</v>
@@ -8165,19 +8165,19 @@
         <v>415955</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>389714</v>
+        <v>389848</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>440276</v>
+        <v>440745</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6028134166351018</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5647847828622305</v>
+        <v>0.5649786823631224</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6380593202002597</v>
+        <v>0.6387397620924604</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>745</v>
@@ -8186,19 +8186,19 @@
         <v>821146</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>778312</v>
+        <v>784975</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>855627</v>
+        <v>857762</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6098003256637129</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5779912231891287</v>
+        <v>0.5829392584000528</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6354070227643787</v>
+        <v>0.6369926022054403</v>
       </c>
     </row>
     <row r="29">
@@ -8215,19 +8215,19 @@
         <v>215948</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>192035</v>
+        <v>192287</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>243101</v>
+        <v>242201</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3289099637903108</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.292487220560905</v>
+        <v>0.2928714701236509</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3702653832804156</v>
+        <v>0.368895295803887</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>212</v>
@@ -8236,19 +8236,19 @@
         <v>226260</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>201753</v>
+        <v>200353</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>252386</v>
+        <v>251973</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3279024762110964</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2923864699176164</v>
+        <v>0.2903565587740493</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.365765181596748</v>
+        <v>0.3651658747313065</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>403</v>
@@ -8257,19 +8257,19 @@
         <v>442209</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>407609</v>
+        <v>406970</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>481518</v>
+        <v>476336</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.328393701071665</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3026989461948379</v>
+        <v>0.3022247715643628</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3575858807341351</v>
+        <v>0.3537370976075891</v>
       </c>
     </row>
     <row r="30">
@@ -8286,19 +8286,19 @@
         <v>35419</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>24131</v>
+        <v>24182</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>49556</v>
+        <v>49264</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0539466769587361</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03675452178895003</v>
+        <v>0.03683222789119235</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07547905648525947</v>
+        <v>0.07503449041792942</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>46</v>
@@ -8307,19 +8307,19 @@
         <v>47808</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>35436</v>
+        <v>35816</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>61663</v>
+        <v>62129</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.06928410715380179</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05135525217974869</v>
+        <v>0.05190504128337589</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.08936402493156284</v>
+        <v>0.09003910171997166</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>77</v>
@@ -8328,19 +8328,19 @@
         <v>83227</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>67010</v>
+        <v>67121</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>103077</v>
+        <v>101546</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.06180597326462215</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04976302386089061</v>
+        <v>0.04984556166787603</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0765473728005755</v>
+        <v>0.0754105683237304</v>
       </c>
     </row>
     <row r="31">
@@ -8432,19 +8432,19 @@
         <v>631706</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>609890</v>
+        <v>606033</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>652118</v>
+        <v>650787</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8113532067371814</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7833332338185066</v>
+        <v>0.778378896488688</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8375705365051173</v>
+        <v>0.8358609855984499</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>635</v>
@@ -8453,19 +8453,19 @@
         <v>690710</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>669072</v>
+        <v>665667</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>713851</v>
+        <v>710604</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8389656103857126</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.812682255229274</v>
+        <v>0.8085471421539729</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8670733484367761</v>
+        <v>0.8631298093586609</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1243</v>
@@ -8474,19 +8474,19 @@
         <v>1322416</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1288357</v>
+        <v>1289622</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1351104</v>
+        <v>1352633</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8255447157528962</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8042826904707818</v>
+        <v>0.8050725990912707</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.843453796896187</v>
+        <v>0.8444084812547492</v>
       </c>
     </row>
     <row r="33">
@@ -8503,19 +8503,19 @@
         <v>128641</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>108531</v>
+        <v>108939</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>150166</v>
+        <v>152606</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1652248189560979</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1393953322607671</v>
+        <v>0.1399199204943753</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1928715332595621</v>
+        <v>0.1960046683709719</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>96</v>
@@ -8524,19 +8524,19 @@
         <v>106436</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>85412</v>
+        <v>87965</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>126209</v>
+        <v>127420</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1292818682866183</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1037446109433264</v>
+        <v>0.1068461833427724</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1532992020897021</v>
+        <v>0.1547693435501908</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>221</v>
@@ -8545,19 +8545,19 @@
         <v>235077</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>205955</v>
+        <v>207687</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>265727</v>
+        <v>265761</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1467517908572041</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1285713971510138</v>
+        <v>0.1296529034971637</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1658854943163979</v>
+        <v>0.1659066164240965</v>
       </c>
     </row>
     <row r="34">
@@ -8574,19 +8574,19 @@
         <v>18236</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>11556</v>
+        <v>11289</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>28440</v>
+        <v>29862</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02342197430672067</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01484180532963535</v>
+        <v>0.01449933431195668</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03652820629657171</v>
+        <v>0.03835434338541729</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>22</v>
@@ -8595,19 +8595,19 @@
         <v>26141</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>16863</v>
+        <v>16880</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>39362</v>
+        <v>39385</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03175252132766916</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02048222325219172</v>
+        <v>0.0205026506123971</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.04781019769348566</v>
+        <v>0.04783826144735517</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>39</v>
@@ -8616,19 +8616,19 @@
         <v>44377</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>31629</v>
+        <v>31519</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>60646</v>
+        <v>61127</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02770349338989964</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01974523043481272</v>
+        <v>0.0196763734603114</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03785976502140121</v>
+        <v>0.03815950139902544</v>
       </c>
     </row>
     <row r="35">
@@ -8720,19 +8720,19 @@
         <v>2409164</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2356377</v>
+        <v>2356742</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2462761</v>
+        <v>2467323</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.710250217728163</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.6946879582236927</v>
+        <v>0.6947954079180215</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.7260510883269016</v>
+        <v>0.7273958936773651</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2388</v>
@@ -8741,19 +8741,19 @@
         <v>2525987</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2472644</v>
+        <v>2470519</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2583969</v>
+        <v>2578143</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.7138816185250244</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.6988060561408815</v>
+        <v>0.6982055345746824</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.7302681033020064</v>
+        <v>0.7286216348444946</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>4685</v>
@@ -8762,19 +8762,19 @@
         <v>4935152</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>4863172</v>
+        <v>4859190</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5012009</v>
+        <v>5012181</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.712104271098479</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.7017181842376631</v>
+        <v>0.7011435943709908</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.7231941549597718</v>
+        <v>0.723218963792957</v>
       </c>
     </row>
     <row r="37">
@@ -8791,19 +8791,19 @@
         <v>809838</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>760570</v>
+        <v>758099</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>859514</v>
+        <v>858489</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2387497771014773</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2242249935979514</v>
+        <v>0.2234966582697186</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.253394968387504</v>
+        <v>0.2530928248518554</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>732</v>
@@ -8812,19 +8812,19 @@
         <v>781075</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>729933</v>
+        <v>732672</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>832603</v>
+        <v>830587</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2207433654473319</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2062899709826564</v>
+        <v>0.2070639499622801</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2353059155859841</v>
+        <v>0.2347362467368522</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1503</v>
@@ -8833,19 +8833,19 @@
         <v>1590913</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1518844</v>
+        <v>1524675</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1660344</v>
+        <v>1662246</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2295563968930686</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2191574197644514</v>
+        <v>0.2199987880192888</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2395747868533952</v>
+        <v>0.2398492588895772</v>
       </c>
     </row>
     <row r="38">
@@ -8862,19 +8862,19 @@
         <v>172992</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>145694</v>
+        <v>149473</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>199292</v>
+        <v>201848</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.05100000517035975</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.04295227452599566</v>
+        <v>0.04406650512972873</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.05875355069825579</v>
+        <v>0.05950716761566602</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>213</v>
@@ -8883,19 +8883,19 @@
         <v>231322</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>204859</v>
+        <v>202446</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>264868</v>
+        <v>261608</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.06537501602764363</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.0578960704324548</v>
+        <v>0.05721426625339759</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.07485557504711333</v>
+        <v>0.07393435638296039</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>374</v>
@@ -8904,19 +8904,19 @@
         <v>404314</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>364873</v>
+        <v>367417</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>445246</v>
+        <v>446917</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.05833933200845242</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.05264836077122791</v>
+        <v>0.05301539589289988</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.06424551450012167</v>
+        <v>0.06448665776186099</v>
       </c>
     </row>
     <row r="39">
@@ -9252,19 +9252,19 @@
         <v>303543</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>294760</v>
+        <v>295165</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>309701</v>
+        <v>309722</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9520087257240487</v>
+        <v>0.9520087257240489</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9244608758253962</v>
+        <v>0.9257305823406772</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.971320570757217</v>
+        <v>0.971386490104335</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>521</v>
@@ -9273,19 +9273,19 @@
         <v>304821</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>293895</v>
+        <v>294570</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>309540</v>
+        <v>309691</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.9644371213894101</v>
+        <v>0.9644371213894098</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9298672052065766</v>
+        <v>0.9320031631447062</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9793674261794657</v>
+        <v>0.9798472331575752</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>835</v>
@@ -9294,19 +9294,19 @@
         <v>608364</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>597051</v>
+        <v>595646</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>616732</v>
+        <v>617031</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.9581956686650842</v>
+        <v>0.9581956686650841</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9403769908512274</v>
+        <v>0.9381635298941449</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9713753862085377</v>
+        <v>0.971846356243671</v>
       </c>
     </row>
     <row r="5">
@@ -9323,19 +9323,19 @@
         <v>15302</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9144</v>
+        <v>9123</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>24085</v>
+        <v>23680</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.04799127427595123</v>
+        <v>0.04799127427595124</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.028679429242783</v>
+        <v>0.02861350989566492</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07553912417460362</v>
+        <v>0.07426941765932264</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -9344,19 +9344,19 @@
         <v>10255</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5515</v>
+        <v>5549</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20664</v>
+        <v>20899</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03244714474162977</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01745031112824176</v>
+        <v>0.01755598937740628</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06537952475165565</v>
+        <v>0.06612375042671988</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>32</v>
@@ -9365,19 +9365,19 @@
         <v>25557</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>17373</v>
+        <v>17303</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>37316</v>
+        <v>38348</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04025329705939514</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02736339413458323</v>
+        <v>0.02725238385352618</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05877433757218268</v>
+        <v>0.06039956249095133</v>
       </c>
     </row>
     <row r="6">
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>3546</v>
+        <v>3478</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.003115733868960228</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01121838416000429</v>
+        <v>0.01100488348485832</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>2</v>
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>2982</v>
+        <v>3133</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.001551034275520714</v>
@@ -9440,7 +9440,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.00469724973611926</v>
+        <v>0.004934517391606881</v>
       </c>
     </row>
     <row r="7">
@@ -9532,7 +9532,7 @@
         <v>415664</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>390155</v>
+        <v>391938</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>436830</v>
@@ -9541,10 +9541,10 @@
         <v>0.7833163258412236</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7352434668212375</v>
+        <v>0.7386034525934889</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8232026299329401</v>
+        <v>0.8232033434348143</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>570</v>
@@ -9553,19 +9553,19 @@
         <v>436197</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>417284</v>
+        <v>418031</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>451984</v>
+        <v>452371</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7981730225890855</v>
+        <v>0.7981730225890854</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7635655252723549</v>
+        <v>0.7649320541513489</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8270605357285119</v>
+        <v>0.8277701416377418</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>864</v>
@@ -9574,19 +9574,19 @@
         <v>851861</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>821977</v>
+        <v>822993</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>878296</v>
+        <v>882162</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7908539630866344</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7631099640582346</v>
+        <v>0.7640529144002398</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8153954989052532</v>
+        <v>0.8189843087758347</v>
       </c>
     </row>
     <row r="9">
@@ -9603,19 +9603,19 @@
         <v>104377</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>83512</v>
+        <v>83908</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>128842</v>
+        <v>129576</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1966976538876522</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1573784750211343</v>
+        <v>0.1581230925788587</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2428011244652191</v>
+        <v>0.2441840686832418</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>125</v>
@@ -9624,19 +9624,19 @@
         <v>94541</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>79897</v>
+        <v>78993</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>111804</v>
+        <v>111878</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1729960525569897</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1461994283367782</v>
+        <v>0.1445452659049178</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2045849170555089</v>
+        <v>0.2047197111399111</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>204</v>
@@ -9645,19 +9645,19 @@
         <v>198918</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>172704</v>
+        <v>171128</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>227974</v>
+        <v>229147</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1846724994406122</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1603351436771568</v>
+        <v>0.1588724579681132</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2116469811585017</v>
+        <v>0.21273670680273</v>
       </c>
     </row>
     <row r="10">
@@ -9674,19 +9674,19 @@
         <v>10606</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5178</v>
+        <v>5045</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19426</v>
+        <v>19584</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01998602027112415</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009758637330332014</v>
+        <v>0.009507904491654985</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03660880513281253</v>
+        <v>0.03690672302276087</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -9695,19 +9695,19 @@
         <v>15756</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9966</v>
+        <v>9822</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23883</v>
+        <v>23332</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02883092485392477</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01823574483401855</v>
+        <v>0.01797283960637144</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04370232476933063</v>
+        <v>0.04269472438749527</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -9716,19 +9716,19 @@
         <v>26361</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17226</v>
+        <v>18352</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36625</v>
+        <v>37121</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02447353747275351</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01599268426449449</v>
+        <v>0.01703789812492156</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03400208155388441</v>
+        <v>0.03446218535617043</v>
       </c>
     </row>
     <row r="11">
@@ -9820,19 +9820,19 @@
         <v>268269</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>254325</v>
+        <v>254684</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>279687</v>
+        <v>279288</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8518954138438475</v>
+        <v>0.8518954138438474</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.807615559685019</v>
+        <v>0.8087552998691196</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8881549718043854</v>
+        <v>0.8868887537987331</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>440</v>
@@ -9841,19 +9841,19 @@
         <v>288107</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>273791</v>
+        <v>274363</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>300143</v>
+        <v>300378</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.8084243836104588</v>
+        <v>0.8084243836104585</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7682526975682094</v>
+        <v>0.7698596943677783</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8421968774014889</v>
+        <v>0.8428577020614033</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>746</v>
@@ -9862,19 +9862,19 @@
         <v>556376</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>538276</v>
+        <v>534978</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>573118</v>
+        <v>572119</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8288170314039739</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8018539411465722</v>
+        <v>0.7969415269285141</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8537573641195153</v>
+        <v>0.8522694400725098</v>
       </c>
     </row>
     <row r="13">
@@ -9891,19 +9891,19 @@
         <v>24910</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17019</v>
+        <v>16956</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>36542</v>
+        <v>34839</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.07910178374393843</v>
+        <v>0.07910178374393842</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05404289867454272</v>
+        <v>0.05384361274232182</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1160400317757625</v>
+        <v>0.1106319319011325</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>60</v>
@@ -9912,19 +9912,19 @@
         <v>43157</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>33779</v>
+        <v>33989</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>54733</v>
+        <v>55528</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1210993229068899</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09478397778166794</v>
+        <v>0.0953736544145585</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.153580968840323</v>
+        <v>0.1558114046352344</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>88</v>
@@ -9933,19 +9933,19 @@
         <v>68067</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>55358</v>
+        <v>55068</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>83342</v>
+        <v>83034</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1013979029095641</v>
+        <v>0.101397902909564</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08246587290678871</v>
+        <v>0.08203389457687935</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1241529158335963</v>
+        <v>0.1236930630058769</v>
       </c>
     </row>
     <row r="14">
@@ -9962,19 +9962,19 @@
         <v>21730</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>14055</v>
+        <v>13996</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>33518</v>
+        <v>32509</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0690028024122142</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0446312720134297</v>
+        <v>0.04444401589242548</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1064367888910316</v>
+        <v>0.1032334064519962</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>36</v>
@@ -9983,19 +9983,19 @@
         <v>25116</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17872</v>
+        <v>16966</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>35225</v>
+        <v>34796</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.0704762934826515</v>
+        <v>0.07047629348265148</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05014919555106048</v>
+        <v>0.04760609635661041</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09884049144266807</v>
+        <v>0.09763714687129026</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>61</v>
@@ -10004,19 +10004,19 @@
         <v>46846</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>35736</v>
+        <v>36034</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>61362</v>
+        <v>60427</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06978506568646187</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05323429068646031</v>
+        <v>0.05367927504153872</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09140957601023031</v>
+        <v>0.09001606503292216</v>
       </c>
     </row>
     <row r="15">
@@ -10108,19 +10108,19 @@
         <v>280893</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>257565</v>
+        <v>260244</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>300401</v>
+        <v>300526</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7527728896110034</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6902556442913368</v>
+        <v>0.6974333153263954</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8050512355855313</v>
+        <v>0.8053862008430037</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>453</v>
@@ -10129,19 +10129,19 @@
         <v>312403</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>293331</v>
+        <v>292693</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>330775</v>
+        <v>327711</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7415631656543363</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6962909535448829</v>
+        <v>0.6947766099768473</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7851747229697095</v>
+        <v>0.7779000649858026</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>659</v>
@@ -10150,19 +10150,19 @@
         <v>593296</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>565871</v>
+        <v>562332</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>619381</v>
+        <v>617496</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.7468284507698998</v>
+        <v>0.7468284507698997</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7123056066984629</v>
+        <v>0.7078510143725033</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7796628434549997</v>
+        <v>0.7772908036587611</v>
       </c>
     </row>
     <row r="17">
@@ -10179,19 +10179,19 @@
         <v>81616</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>62995</v>
+        <v>62081</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>102987</v>
+        <v>100589</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.218724030630561</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.168823097094115</v>
+        <v>0.1663726687961874</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2759968339763534</v>
+        <v>0.2695697169476034</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>102</v>
@@ -10200,19 +10200,19 @@
         <v>80601</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>64197</v>
+        <v>66028</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>98610</v>
+        <v>98267</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.1913248464734382</v>
+        <v>0.1913248464734383</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1523858990499129</v>
+        <v>0.1567326043238024</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2340754455175129</v>
+        <v>0.2332611849108831</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>174</v>
@@ -10221,19 +10221,19 @@
         <v>162216</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>138075</v>
+        <v>138404</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>189522</v>
+        <v>192081</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2041944333677058</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1738053534548536</v>
+        <v>0.1742200686489275</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2385659171155921</v>
+        <v>0.2417875085743989</v>
       </c>
     </row>
     <row r="18">
@@ -10250,19 +10250,19 @@
         <v>10636</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6047</v>
+        <v>5882</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>19456</v>
+        <v>20535</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02850307975843562</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01620653067554176</v>
+        <v>0.01576319771400635</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05214125934367537</v>
+        <v>0.05503254488242255</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>43</v>
@@ -10271,19 +10271,19 @@
         <v>28273</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>20534</v>
+        <v>20238</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>37928</v>
+        <v>38601</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.06711198787222551</v>
+        <v>0.06711198787222553</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04874168819682285</v>
+        <v>0.04804063900795515</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09003089400431745</v>
+        <v>0.09162903618004437</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>57</v>
@@ -10292,19 +10292,19 @@
         <v>38908</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>29585</v>
+        <v>29354</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>52474</v>
+        <v>51390</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.04897711586239447</v>
+        <v>0.04897711586239448</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03724140562454246</v>
+        <v>0.03694970530436831</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06605280819114147</v>
+        <v>0.06468888715233671</v>
       </c>
     </row>
     <row r="19">
@@ -10396,19 +10396,19 @@
         <v>171298</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>160241</v>
+        <v>161169</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>179574</v>
+        <v>180140</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.832899351986105</v>
+        <v>0.8328993519861051</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7791344538649475</v>
+        <v>0.7836497875896669</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.873137219470892</v>
+        <v>0.8758883742663648</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>437</v>
@@ -10417,19 +10417,19 @@
         <v>201255</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>194197</v>
+        <v>194572</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>207505</v>
+        <v>208443</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8791594019675759</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8483264514390364</v>
+        <v>0.849963982066641</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9064595147532619</v>
+        <v>0.9105572983805826</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>673</v>
@@ -10438,19 +10438,19 @@
         <v>372553</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>359736</v>
+        <v>358976</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>383682</v>
+        <v>383947</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8572669779460166</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8277755383562007</v>
+        <v>0.8260260364090436</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8828770166490226</v>
+        <v>0.8834856200842452</v>
       </c>
     </row>
     <row r="21">
@@ -10467,19 +10467,19 @@
         <v>26951</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>20215</v>
+        <v>19696</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>37098</v>
+        <v>36591</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1310416467095123</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09828908376578449</v>
+        <v>0.09576938514062211</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1803793579144815</v>
+        <v>0.1779156125245704</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>55</v>
@@ -10488,19 +10488,19 @@
         <v>26318</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>20205</v>
+        <v>19235</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>33643</v>
+        <v>33105</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1149660326244879</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.08826511292021082</v>
+        <v>0.08402433503234548</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1469645377488308</v>
+        <v>0.1446150180788519</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>90</v>
@@ -10509,19 +10509,19 @@
         <v>53268</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>43685</v>
+        <v>43379</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>65390</v>
+        <v>65612</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1225737667297747</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1005221198296395</v>
+        <v>0.09981870986577066</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1504655048243331</v>
+        <v>0.1509774135054668</v>
       </c>
     </row>
     <row r="22">
@@ -10538,19 +10538,19 @@
         <v>7416</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3389</v>
+        <v>3479</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15130</v>
+        <v>15370</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03605900130438255</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01647906310678189</v>
+        <v>0.0169172493778239</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07356684373099961</v>
+        <v>0.07473188512153575</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -10559,19 +10559,19 @@
         <v>1345</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3558</v>
+        <v>3695</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.005874565407936263</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001876316444188035</v>
+        <v>0.001903082741224459</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01554426624899121</v>
+        <v>0.01614285105905301</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>11</v>
@@ -10580,19 +10580,19 @@
         <v>8761</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4167</v>
+        <v>4369</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>15980</v>
+        <v>15839</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02015925532420877</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00958882153717266</v>
+        <v>0.01005410997433923</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03677054506342802</v>
+        <v>0.03644583847960328</v>
       </c>
     </row>
     <row r="23">
@@ -10684,19 +10684,19 @@
         <v>231555</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>219984</v>
+        <v>219085</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>240705</v>
+        <v>241368</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.8553722282753083</v>
+        <v>0.8553722282753085</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8126263491515114</v>
+        <v>0.8093068292185304</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8891726720971237</v>
+        <v>0.8916194383294782</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>390</v>
@@ -10705,19 +10705,19 @@
         <v>220267</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>209488</v>
+        <v>209866</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>229233</v>
+        <v>229400</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.8351341447820326</v>
+        <v>0.8351341447820324</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.7942688293570287</v>
+        <v>0.79569975073915</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8691282542569836</v>
+        <v>0.8697621941569021</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>706</v>
@@ -10726,19 +10726,19 @@
         <v>451822</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>435547</v>
+        <v>438796</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>465535</v>
+        <v>465929</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.8453848996020525</v>
+        <v>0.8453848996020527</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.8149343547012249</v>
+        <v>0.8210123615164195</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8710427821458196</v>
+        <v>0.8717807741525048</v>
       </c>
     </row>
     <row r="25">
@@ -10755,19 +10755,19 @@
         <v>26677</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>19580</v>
+        <v>19722</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>36475</v>
+        <v>36708</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.09854390112074909</v>
+        <v>0.09854390112074911</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07232882190445844</v>
+        <v>0.07285394118307796</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1347398095897655</v>
+        <v>0.1355990277062208</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>46</v>
@@ -10776,19 +10776,19 @@
         <v>27862</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>20521</v>
+        <v>20192</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>37238</v>
+        <v>35663</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1056389930605089</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07780597276453069</v>
+        <v>0.07655745215994002</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1411875433832938</v>
+        <v>0.135216090294297</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>84</v>
@@ -10797,19 +10797,19 @@
         <v>54539</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>43003</v>
+        <v>43457</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>66178</v>
+        <v>66413</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1020452709610748</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08046082012575963</v>
+        <v>0.08131054867688434</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1238230408522184</v>
+        <v>0.1242630017655056</v>
       </c>
     </row>
     <row r="26">
@@ -10826,19 +10826,19 @@
         <v>12475</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7564</v>
+        <v>7089</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>19770</v>
+        <v>20257</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04608387060394243</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02794267647763156</v>
+        <v>0.02618706476614307</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07303222923363854</v>
+        <v>0.07482933687693712</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>24</v>
@@ -10847,19 +10847,19 @@
         <v>15621</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>10207</v>
+        <v>9670</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>23846</v>
+        <v>23068</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.05922686215745868</v>
+        <v>0.05922686215745865</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03869772498445738</v>
+        <v>0.03666295353563351</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09041103260535968</v>
+        <v>0.08746201367455014</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>41</v>
@@ -10868,19 +10868,19 @@
         <v>28096</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>20743</v>
+        <v>19907</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>40295</v>
+        <v>38169</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.05256982943687261</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03881063085744891</v>
+        <v>0.03724626733267958</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.07539373136815124</v>
+        <v>0.07141614679365342</v>
       </c>
     </row>
     <row r="27">
@@ -10972,19 +10972,19 @@
         <v>467944</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>437370</v>
+        <v>436556</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>496113</v>
+        <v>496698</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.6530554785716371</v>
+        <v>0.6530554785716373</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6103861046915452</v>
+        <v>0.6092506092830936</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6923671254880341</v>
+        <v>0.6931832359834533</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>643</v>
@@ -10993,19 +10993,19 @@
         <v>514340</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>485998</v>
+        <v>489952</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>537169</v>
+        <v>539331</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.6674233677881294</v>
+        <v>0.6674233677881293</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6306455243839716</v>
+        <v>0.6357772257009604</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6970475067292238</v>
+        <v>0.6998525982831432</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1031</v>
@@ -11014,19 +11014,19 @@
         <v>982285</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>945340</v>
+        <v>945379</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1021284</v>
+        <v>1021399</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.6605007056065295</v>
+        <v>0.6605007056065294</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6356587068968337</v>
+        <v>0.6356850321093016</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6867240415075042</v>
+        <v>0.6868017556580222</v>
       </c>
     </row>
     <row r="29">
@@ -11043,19 +11043,19 @@
         <v>174047</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>147333</v>
+        <v>148203</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>202501</v>
+        <v>201124</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.24289768654318</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2056156484072683</v>
+        <v>0.2068296607616746</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2826077745075061</v>
+        <v>0.2806855273430962</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>197</v>
@@ -11064,19 +11064,19 @@
         <v>155761</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>137003</v>
+        <v>134914</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>179192</v>
+        <v>175554</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2021201859505759</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1777791778146621</v>
+        <v>0.1750689695188049</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2325257469656849</v>
+        <v>0.2278044856232917</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>343</v>
@@ -11085,19 +11085,19 @@
         <v>329808</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>294725</v>
+        <v>298101</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>363517</v>
+        <v>362352</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2217673906971549</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1981768140697775</v>
+        <v>0.200446616179548</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2444333008191262</v>
+        <v>0.2436501277236723</v>
       </c>
     </row>
     <row r="30">
@@ -11114,19 +11114,19 @@
         <v>74554</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>58217</v>
+        <v>56975</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>93429</v>
+        <v>96518</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1040468348851828</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.08124692195988854</v>
+        <v>0.07951274505723789</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1303878008618674</v>
+        <v>0.1346986386532085</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>118</v>
@@ -11135,19 +11135,19 @@
         <v>100534</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>84511</v>
+        <v>82974</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>120556</v>
+        <v>120449</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1304564462612948</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1096641011686997</v>
+        <v>0.1076696655446019</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1564375922525365</v>
+        <v>0.1562988691504026</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>180</v>
@@ -11156,19 +11156,19 @@
         <v>175089</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>151708</v>
+        <v>151256</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>201736</v>
+        <v>203785</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1177319036963156</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1020100952903264</v>
+        <v>0.1017063196968138</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1356500133872714</v>
+        <v>0.137027802491825</v>
       </c>
     </row>
     <row r="31">
@@ -11260,19 +11260,19 @@
         <v>572651</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>545593</v>
+        <v>545358</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>598480</v>
+        <v>599010</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7175430324125832</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6836384319967904</v>
+        <v>0.6833441584167216</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7499066592490289</v>
+        <v>0.7505708851920432</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>755</v>
@@ -11281,19 +11281,19 @@
         <v>582494</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>556798</v>
+        <v>555795</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>605943</v>
+        <v>606415</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.7014530677556088</v>
+        <v>0.7014530677556089</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6705095436546192</v>
+        <v>0.6693017239466955</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7296911723000028</v>
+        <v>0.7302601208768994</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1298</v>
@@ -11302,19 +11302,19 @@
         <v>1155145</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1119446</v>
+        <v>1118489</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1194196</v>
+        <v>1190273</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.7093382922847399</v>
+        <v>0.70933829228474</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6874171009237687</v>
+        <v>0.686829356962447</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7333187730389416</v>
+        <v>0.7309096740238723</v>
       </c>
     </row>
     <row r="33">
@@ -11331,19 +11331,19 @@
         <v>180690</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>154468</v>
+        <v>159251</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>202868</v>
+        <v>209435</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2264080652712759</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.193551865473371</v>
+        <v>0.1995445092108948</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2541980254422925</v>
+        <v>0.2624268057576987</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>256</v>
@@ -11352,19 +11352,19 @@
         <v>204185</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>182011</v>
+        <v>181622</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>227775</v>
+        <v>228782</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2458842575349497</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2191816904684884</v>
+        <v>0.2187135381480558</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2742920427376477</v>
+        <v>0.275505033175013</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>432</v>
@@ -11373,19 +11373,19 @@
         <v>384875</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>349594</v>
+        <v>352615</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>419724</v>
+        <v>422957</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2363395411700802</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.2146744928296263</v>
+        <v>0.216529698252725</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2577392632982482</v>
+        <v>0.2597248366185101</v>
       </c>
     </row>
     <row r="34">
@@ -11402,19 +11402,19 @@
         <v>44731</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>32478</v>
+        <v>33186</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>60729</v>
+        <v>60283</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.05604890231614081</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.04069522705198073</v>
+        <v>0.04158333633547024</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.07609448200788088</v>
+        <v>0.07553636525930353</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>50</v>
@@ -11423,19 +11423,19 @@
         <v>43732</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>32410</v>
+        <v>33195</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>58303</v>
+        <v>57377</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.05266267470944136</v>
+        <v>0.05266267470944137</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.03902943024456399</v>
+        <v>0.03997437840847316</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.07020986368327291</v>
+        <v>0.06909529443281269</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>93</v>
@@ -11444,19 +11444,19 @@
         <v>88463</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>71185</v>
+        <v>71431</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>108038</v>
+        <v>109146</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.05432216654517971</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.04371218426245344</v>
+        <v>0.0438637751596835</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.06634260510022592</v>
+        <v>0.06702314143918683</v>
       </c>
     </row>
     <row r="35">
@@ -11548,19 +11548,19 @@
         <v>2711819</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2661681</v>
+        <v>2654512</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2768572</v>
+        <v>2764044</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.768539528062582</v>
+        <v>0.7685395280625819</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.7543303562590954</v>
+        <v>0.7522986844475997</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.7846236725159554</v>
+        <v>0.7833404674529957</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>4209</v>
@@ -11569,19 +11569,19 @@
         <v>2859885</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2810486</v>
+        <v>2808438</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2908916</v>
+        <v>2906747</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.7659186992367177</v>
+        <v>0.7659186992367175</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.7526890068140163</v>
+        <v>0.7521406313240447</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.7790499378803494</v>
+        <v>0.7784692265150182</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>6812</v>
@@ -11590,19 +11590,19 @@
         <v>5571703</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>5503357</v>
+        <v>5499030</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5645466</v>
+        <v>5639913</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.7671920535306501</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.7577811621116693</v>
+        <v>0.7571853776818116</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.7773487265080976</v>
+        <v>0.7765841415681936</v>
       </c>
     </row>
     <row r="37">
@@ -11619,19 +11619,19 @@
         <v>634569</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>588793</v>
+        <v>587698</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>686489</v>
+        <v>683238</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1798391852841759</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1668661232566142</v>
+        <v>0.1665557981519931</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1945534926208138</v>
+        <v>0.1936322350563163</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>856</v>
@@ -11640,19 +11640,19 @@
         <v>642681</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>599349</v>
+        <v>602761</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>687128</v>
+        <v>688031</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1721192601354948</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1605143565699108</v>
+        <v>0.1614281615566505</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1840228441024492</v>
+        <v>0.1842648303895316</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1447</v>
@@ -11661,19 +11661,19 @@
         <v>1277250</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1214421</v>
+        <v>1215042</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1344834</v>
+        <v>1347008</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1758700582570275</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1672189042947323</v>
+        <v>0.1673044379737071</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1851759877354869</v>
+        <v>0.1854754578051708</v>
       </c>
     </row>
     <row r="38">
@@ -11690,19 +11690,19 @@
         <v>182148</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>154654</v>
+        <v>156194</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>210703</v>
+        <v>211850</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.05162128665324221</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.04382942922199191</v>
+        <v>0.04426607623951378</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.05971400620695004</v>
+        <v>0.0600391948173559</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>298</v>
@@ -11711,19 +11711,19 @@
         <v>231362</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>203611</v>
+        <v>204501</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>258046</v>
+        <v>263635</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.06196204062778751</v>
+        <v>0.0619620406277875</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.05453008765867154</v>
+        <v>0.05476845027064057</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.06910848398137699</v>
+        <v>0.07060536247463609</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>476</v>
@@ -11732,19 +11732,19 @@
         <v>413509</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>378064</v>
+        <v>373555</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>453841</v>
+        <v>455533</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.05693788821232239</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.05205723100998064</v>
+        <v>0.05143639017773666</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.06249135071828087</v>
+        <v>0.06272431309901207</v>
       </c>
     </row>
     <row r="39">
